--- a/default-mappings-xlsx/dataQuality/DataQuality_Mapping_SuiteCRM_DE.xlsx
+++ b/default-mappings-xlsx/dataQuality/DataQuality_Mapping_SuiteCRM_DE.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\grabber\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\dataQuality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3D8CAF-3CB8-415B-B86E-606CABCF540F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBFE475-1C39-48F4-8903-3452F1DAAB0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
+    <workbookView xWindow="3210" yWindow="6285" windowWidth="18255" windowHeight="5385" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Checkbox">Tabelle1!$C$6:$D$26</definedName>
-    <definedName name="Field_Type">Tabelle1!$AC$29:$AC$37,Tabelle1!$AC$6:$AC$23,Tabelle1!$AC$26,Tabelle1!$Y$6:$Y$26,Tabelle1!$Y$29:$Y$37,Tabelle1!$Q$29:$Q$37,Tabelle1!$Q$6:$Q$26,Tabelle1!$M$6:$M$26,Tabelle1!$M$29:$M$37,Tabelle1!$I$29:$I$37,Tabelle1!$I$6:$I$26</definedName>
+    <definedName name="Checkbox">Tabelle1!$C$6:$D$30</definedName>
+    <definedName name="Field_Type">Tabelle1!$AC$33:$AC$38,Tabelle1!$AC$6:$AC$25,Tabelle1!$AC$30,Tabelle1!$Y$6:$Y$30,Tabelle1!$Y$33:$Y$38,Tabelle1!$Q$33:$Q$38,Tabelle1!$Q$6:$Q$30,Tabelle1!$M$6:$M$30,Tabelle1!$M$33:$M$38,Tabelle1!$I$33:$I$38,Tabelle1!$I$6:$I$30</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="83">
   <si>
     <t>snapADDY</t>
   </si>
@@ -55,12 +55,6 @@
     <t>Field type</t>
   </si>
   <si>
-    <t>custom 1</t>
-  </si>
-  <si>
-    <t>custom1__c</t>
-  </si>
-  <si>
     <t>custom 2</t>
   </si>
   <si>
@@ -269,6 +263,27 @@
   </si>
   <si>
     <t>Notizen</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Beispiel Nicht-benötigtes Feld</t>
+  </si>
+  <si>
+    <t>Nicht benötigt</t>
+  </si>
+  <si>
+    <t>Nicht Benötigt</t>
+  </si>
+  <si>
+    <t>Beispiel Pflichtfeld</t>
+  </si>
+  <si>
+    <t>Pflichfeld</t>
+  </si>
+  <si>
+    <t>(= Felder mit automatischem Wert)</t>
   </si>
 </sst>
 </file>
@@ -383,7 +398,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="72">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -429,75 +444,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -507,19 +453,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color rgb="FF9DA600"/>
       </left>
@@ -561,15 +494,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,67 +524,6 @@
         <color rgb="FF9DA600"/>
       </left>
       <right/>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
       <top style="thin">
         <color rgb="FF9DA600"/>
       </top>
@@ -1034,28 +897,6 @@
         <color rgb="FFEB6758"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFEB6758"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFEB6758"/>
-      </left>
-      <right/>
       <top style="thin">
         <color rgb="FF0070C0"/>
       </top>
@@ -1149,28 +990,6 @@
       <bottom style="thin">
         <color rgb="FF0070C0"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFF6BAB4"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFF6BAB4"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1296,7 +1115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1318,148 +1137,106 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="24">
     <dxf>
       <font>
         <b val="0"/>
@@ -1534,29 +1311,7 @@
         <color rgb="FFFE6C36"/>
       </font>
       <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
+        <patternFill patternType="darkUp">
           <fgColor theme="0" tint="-0.14993743705557422"/>
           <bgColor auto="1"/>
         </patternFill>
@@ -1850,13 +1605,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>973015</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2217,10 +1972,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
-  <dimension ref="A1:AC38"/>
+  <dimension ref="A1:AV39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -2244,1385 +1999,1486 @@
     <col min="27" max="29" width="15" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:48" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:48" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:29" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:48" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E3" s="5"/>
-      <c r="G3" s="80" t="s">
+      <c r="G3" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="O3" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="80" t="s">
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="S3" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
+      <c r="W3" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
-      <c r="O3" s="80" t="s">
-        <v>22</v>
-      </c>
-      <c r="P3" s="80"/>
-      <c r="Q3" s="80"/>
-      <c r="S3" s="80" t="s">
+      <c r="X3" s="58"/>
+      <c r="Y3" s="59"/>
+      <c r="AA3" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="59"/>
+    </row>
+    <row r="4" spans="1:48" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:48" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="T3" s="80"/>
-      <c r="U3" s="80"/>
-      <c r="W3" s="81" t="s">
-        <v>23</v>
-      </c>
-      <c r="X3" s="82"/>
-      <c r="Y3" s="83"/>
-      <c r="AA3" s="81" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB3" s="82"/>
-      <c r="AC3" s="83"/>
-    </row>
-    <row r="4" spans="1:29" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="53" t="s">
+      <c r="G5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="54" t="s">
+      <c r="H5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="55" t="s">
+      <c r="I5" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="52"/>
-      <c r="K5" s="53" t="s">
+      <c r="J5" s="34"/>
+      <c r="K5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="54" t="s">
+      <c r="L5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="55" t="s">
+      <c r="M5" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="53" t="s">
+      <c r="O5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="54" t="s">
+      <c r="P5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="55" t="s">
+      <c r="Q5" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="S5" s="53" t="s">
+      <c r="S5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="T5" s="54" t="s">
+      <c r="T5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="U5" s="55" t="s">
+      <c r="U5" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="W5" s="67" t="s">
+      <c r="W5" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="X5" s="68" t="s">
+      <c r="X5" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="Y5" s="69" t="s">
+      <c r="Y5" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="AA5" s="67" t="s">
+      <c r="AA5" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="AB5" s="68" t="s">
+      <c r="AB5" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="AC5" s="69" t="s">
+      <c r="AC5" s="47" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="11"/>
+    <row r="6" spans="1:48" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>78</v>
+      </c>
       <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
+      <c r="D6" s="13" t="s">
+        <v>76</v>
+      </c>
       <c r="E6" s="14"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="57"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="57"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="57"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="57"/>
-      <c r="W6" s="70" t="s">
+      <c r="G6" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="38"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="39"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="39"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="39"/>
+      <c r="W6" s="48"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="49"/>
+      <c r="AA6" s="48"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="49"/>
+    </row>
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="14"/>
+      <c r="G7" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="38"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="39"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="39"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="39"/>
+      <c r="W7" s="48"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="49"/>
+      <c r="AA7" s="48"/>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="49"/>
+    </row>
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="14"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="39"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="39"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="39"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="39"/>
+      <c r="W8" s="48"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="49"/>
+      <c r="AA8" s="48"/>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="49"/>
+    </row>
+    <row r="9" spans="1:48" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="G9" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="O9" s="38"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="39"/>
+      <c r="S9" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="T9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="U9" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="W9" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="X6" s="26" t="s">
+      <c r="X9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="Y6" s="71"/>
-      <c r="AA6" s="70"/>
-      <c r="AB6" s="26"/>
-      <c r="AC6" s="71"/>
-    </row>
-    <row r="7" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="Y9" s="49"/>
+      <c r="Z9"/>
+      <c r="AA9" s="48"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="49"/>
+      <c r="AD9"/>
+      <c r="AE9"/>
+      <c r="AF9"/>
+      <c r="AG9"/>
+      <c r="AH9"/>
+      <c r="AI9"/>
+      <c r="AJ9"/>
+      <c r="AK9"/>
+      <c r="AL9"/>
+      <c r="AM9"/>
+      <c r="AN9"/>
+      <c r="AO9"/>
+      <c r="AP9"/>
+      <c r="AQ9"/>
+      <c r="AR9"/>
+      <c r="AS9"/>
+      <c r="AT9"/>
+      <c r="AU9"/>
+      <c r="AV9"/>
+    </row>
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="14"/>
+      <c r="G10" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="O10" s="38"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="39"/>
+      <c r="S10" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="T10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="U10" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="W10" s="48"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="49"/>
+      <c r="AA10" s="48"/>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="49"/>
+    </row>
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20"/>
-      <c r="G7" s="58" t="s">
+      <c r="B11" s="17"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="14"/>
+      <c r="G11" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="H11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="O11" s="38"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="39"/>
+      <c r="S11" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="T11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="U11" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="W11" s="48"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="49"/>
+      <c r="AA11" s="48"/>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="49"/>
+    </row>
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="14"/>
+      <c r="G12" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="O12" s="38"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="39"/>
+      <c r="S12" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="T12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="U12" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="W12" s="48"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="49"/>
+      <c r="AA12" s="48"/>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="49"/>
+    </row>
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="14"/>
+      <c r="G13" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13" s="38"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="39"/>
+      <c r="O13" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="P13" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q13" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="S13" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="T13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="U13" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="W13" s="48"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="49"/>
+      <c r="AA13" s="48"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="49"/>
+    </row>
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="14"/>
+      <c r="G14" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="O14" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q14" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="S14" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="T14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="U14" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="W14" s="48"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="49"/>
+      <c r="AA14" s="48"/>
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="49"/>
+    </row>
+    <row r="15" spans="1:48" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="14"/>
+      <c r="G15" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="O15" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="P15" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q15" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="S15" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="T15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U15" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="W15" s="48"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="49"/>
+      <c r="Z15"/>
+      <c r="AA15" s="48"/>
+      <c r="AB15" s="15"/>
+      <c r="AC15" s="49"/>
+      <c r="AD15"/>
+      <c r="AE15"/>
+      <c r="AF15"/>
+      <c r="AG15"/>
+      <c r="AH15"/>
+      <c r="AI15"/>
+      <c r="AJ15"/>
+      <c r="AK15"/>
+      <c r="AL15"/>
+      <c r="AM15"/>
+      <c r="AN15"/>
+      <c r="AO15"/>
+      <c r="AP15"/>
+      <c r="AQ15"/>
+      <c r="AR15"/>
+      <c r="AS15"/>
+      <c r="AT15"/>
+      <c r="AU15"/>
+      <c r="AV15"/>
+    </row>
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="14"/>
+      <c r="G16" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="K16" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="O16" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="P16" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q16" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="S16" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="T16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="U16" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="W16" s="48"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="49"/>
+      <c r="AA16" s="48"/>
+      <c r="AB16" s="15"/>
+      <c r="AC16" s="49"/>
+    </row>
+    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="G17" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M17" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="P17" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q17" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="S17" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="T17" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="U17" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="W17" s="48"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="49"/>
+      <c r="AA17" s="48"/>
+      <c r="AB17" s="15"/>
+      <c r="AC17" s="49"/>
+    </row>
+    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="14"/>
+      <c r="G18" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M18" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="O18" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="P18" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q18" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="S18" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="T18" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="U18" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="W18" s="48"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="49"/>
+      <c r="AA18" s="48"/>
+      <c r="AB18" s="15"/>
+      <c r="AC18" s="49"/>
+    </row>
+    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="14"/>
+      <c r="G19" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M19" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="O19" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="P19" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q19" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="S19" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="T19" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="U19" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="W19" s="48"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="49"/>
+      <c r="AA19" s="48"/>
+      <c r="AB19" s="15"/>
+      <c r="AC19" s="49"/>
+    </row>
+    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="14"/>
+      <c r="G20" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="M20" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="O20" s="38"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="39"/>
+      <c r="S20" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="T20" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="U20" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="W20" s="48"/>
+      <c r="X20" s="15"/>
+      <c r="Y20" s="49"/>
+      <c r="AA20" s="48"/>
+      <c r="AB20" s="15"/>
+      <c r="AC20" s="49"/>
+    </row>
+    <row r="21" spans="1:48" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="14"/>
+      <c r="G21" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="K21" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M21" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="O21" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="P21" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q21" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="S21" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="T21" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="U21" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="W21" s="48"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="49"/>
+      <c r="AA21" s="48"/>
+      <c r="AB21" s="15"/>
+      <c r="AC21" s="49"/>
+      <c r="AD21"/>
+      <c r="AE21"/>
+      <c r="AF21"/>
+      <c r="AG21"/>
+      <c r="AH21"/>
+      <c r="AI21"/>
+      <c r="AJ21"/>
+      <c r="AK21"/>
+      <c r="AL21"/>
+      <c r="AM21"/>
+      <c r="AN21"/>
+      <c r="AO21"/>
+      <c r="AP21"/>
+      <c r="AQ21"/>
+      <c r="AR21"/>
+      <c r="AS21"/>
+      <c r="AT21"/>
+      <c r="AU21"/>
+      <c r="AV21"/>
+    </row>
+    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="14"/>
+      <c r="G22" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="K22" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M22" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="O22" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="P22" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q22" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="S22" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="T22" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="U22" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="W22" s="48"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="49"/>
+      <c r="AA22" s="48"/>
+      <c r="AB22" s="15"/>
+      <c r="AC22" s="49"/>
+    </row>
+    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="14"/>
+      <c r="G23" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I23" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="K23" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="M23" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="O23" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="P23" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q23" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="S23" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="T23" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U23" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="W23" s="48"/>
+      <c r="X23" s="15"/>
+      <c r="Y23" s="49"/>
+      <c r="AA23" s="48"/>
+      <c r="AB23" s="15"/>
+      <c r="AC23" s="49"/>
+    </row>
+    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="17"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="14"/>
+      <c r="G24" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I24" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="K24" s="38"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="39"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="39"/>
+      <c r="S24" s="38"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="39"/>
+      <c r="W24" s="48"/>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="49"/>
+      <c r="AA24" s="48"/>
+      <c r="AB24" s="15"/>
+      <c r="AC24" s="49"/>
+    </row>
+    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="17"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="G25" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="H25" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="K7" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="L7" s="26" t="s">
+      <c r="I25" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="K25" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="L25" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="O7" s="58"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="59"/>
-      <c r="S7" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="T7" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="U7" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="W7" s="70" t="s">
-        <v>8</v>
-      </c>
-      <c r="X7" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y7" s="71"/>
-      <c r="Z7"/>
-      <c r="AA7" s="70"/>
-      <c r="AB7" s="26"/>
-      <c r="AC7" s="71"/>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25"/>
-      <c r="G8" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="L8" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="M8" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="O8" s="58"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="59"/>
-      <c r="S8" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="T8" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="U8" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="W8" s="70"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="71"/>
-      <c r="AA8" s="70"/>
-      <c r="AB8" s="26"/>
-      <c r="AC8" s="71"/>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="25"/>
-      <c r="G9" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="L9" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="O9" s="58"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="59"/>
-      <c r="S9" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="T9" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="U9" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="W9" s="70"/>
-      <c r="X9" s="26"/>
-      <c r="Y9" s="71"/>
-      <c r="AA9" s="70"/>
-      <c r="AB9" s="26"/>
-      <c r="AC9" s="71"/>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="25"/>
-      <c r="G10" s="58" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="K10" s="58" t="s">
-        <v>74</v>
-      </c>
-      <c r="L10" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="O10" s="58"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="59"/>
-      <c r="S10" s="58" t="s">
-        <v>74</v>
-      </c>
-      <c r="T10" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="U10" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="W10" s="70"/>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="71"/>
-      <c r="AA10" s="70"/>
-      <c r="AB10" s="26"/>
-      <c r="AC10" s="71"/>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
-      <c r="G11" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11" s="58"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="57"/>
-      <c r="O11" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="P11" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q11" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="S11" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="T11" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="U11" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="W11" s="70"/>
-      <c r="X11" s="26"/>
-      <c r="Y11" s="71"/>
-      <c r="AA11" s="70"/>
-      <c r="AB11" s="26"/>
-      <c r="AC11" s="71"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="25"/>
-      <c r="G12" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="K12" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="L12" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="M12" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="O12" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="P12" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q12" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="S12" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="T12" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="U12" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="W12" s="70"/>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="71"/>
-      <c r="AA12" s="70"/>
-      <c r="AB12" s="26"/>
-      <c r="AC12" s="71"/>
-    </row>
-    <row r="13" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20"/>
-      <c r="G13" s="60" t="s">
-        <v>64</v>
-      </c>
-      <c r="H13" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="61" t="s">
-        <v>40</v>
-      </c>
-      <c r="K13" s="60" t="s">
-        <v>64</v>
-      </c>
-      <c r="L13" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="M13" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="O13" s="60" t="s">
-        <v>64</v>
-      </c>
-      <c r="P13" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q13" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="S13" s="60" t="s">
-        <v>64</v>
-      </c>
-      <c r="T13" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="U13" s="61" t="s">
-        <v>40</v>
-      </c>
-      <c r="W13" s="70"/>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="71"/>
-      <c r="Z13"/>
-      <c r="AA13" s="70"/>
-      <c r="AB13" s="26"/>
-      <c r="AC13" s="71"/>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
-      <c r="G14" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="H14" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="L14" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="M14" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="O14" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="P14" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q14" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="S14" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="T14" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="U14" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="W14" s="70"/>
-      <c r="X14" s="26"/>
-      <c r="Y14" s="71"/>
-      <c r="AA14" s="70"/>
-      <c r="AB14" s="26"/>
-      <c r="AC14" s="71"/>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="25"/>
-      <c r="G15" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="H15" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="I15" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="K15" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="L15" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="M15" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="O15" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="P15" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q15" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="S15" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="T15" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="U15" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="W15" s="70"/>
-      <c r="X15" s="26"/>
-      <c r="Y15" s="71"/>
-      <c r="AA15" s="70"/>
-      <c r="AB15" s="26"/>
-      <c r="AC15" s="71"/>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="25"/>
-      <c r="G16" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="I16" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="K16" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="M16" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="O16" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="P16" s="15" t="s">
+      <c r="M25" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="O25" s="38"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="39"/>
+      <c r="S25" s="38"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="39"/>
+      <c r="W25" s="48"/>
+      <c r="X25" s="15"/>
+      <c r="Y25" s="49"/>
+      <c r="AA25" s="48"/>
+      <c r="AB25" s="15"/>
+      <c r="AC25" s="49"/>
+    </row>
+    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="17"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="14"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="39"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="39"/>
+      <c r="O26" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="P26" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="Q16" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="S16" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="T16" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="U16" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="W16" s="70"/>
-      <c r="X16" s="26"/>
-      <c r="Y16" s="71"/>
-      <c r="AA16" s="70"/>
-      <c r="AB16" s="26"/>
-      <c r="AC16" s="71"/>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="25"/>
-      <c r="G17" s="58" t="s">
-        <v>68</v>
-      </c>
-      <c r="H17" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="I17" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="K17" s="58" t="s">
-        <v>68</v>
-      </c>
-      <c r="L17" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="M17" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="O17" s="58" t="s">
-        <v>68</v>
-      </c>
-      <c r="P17" s="26" t="s">
+      <c r="Q26" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="S26" s="38"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="39"/>
+      <c r="W26" s="48"/>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="49"/>
+      <c r="AA26" s="48"/>
+      <c r="AB26" s="15"/>
+      <c r="AC26" s="49"/>
+    </row>
+    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="17"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="14"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="39"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="39"/>
+      <c r="O27" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="P27" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="Q17" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="S17" s="58" t="s">
-        <v>68</v>
-      </c>
-      <c r="T17" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="U17" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="W17" s="70"/>
-      <c r="X17" s="26"/>
-      <c r="Y17" s="71"/>
-      <c r="AA17" s="70"/>
-      <c r="AB17" s="26"/>
-      <c r="AC17" s="71"/>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="25"/>
-      <c r="G18" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="H18" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="I18" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="K18" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="L18" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="M18" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="O18" s="58"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="59"/>
-      <c r="S18" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="T18" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="U18" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="W18" s="70"/>
-      <c r="X18" s="26"/>
-      <c r="Y18" s="71"/>
-      <c r="AA18" s="70"/>
-      <c r="AB18" s="26"/>
-      <c r="AC18" s="71"/>
-    </row>
-    <row r="19" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="20"/>
-      <c r="G19" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="I19" s="61" t="s">
-        <v>40</v>
-      </c>
-      <c r="K19" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="L19" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="M19" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="O19" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="P19" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q19" s="61" t="s">
-        <v>40</v>
-      </c>
-      <c r="S19" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="T19" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="U19" s="61" t="s">
-        <v>40</v>
-      </c>
-      <c r="W19" s="70"/>
-      <c r="X19" s="26"/>
-      <c r="Y19" s="71"/>
-      <c r="AA19" s="70"/>
-      <c r="AB19" s="26"/>
-      <c r="AC19" s="71"/>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="25"/>
-      <c r="G20" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="H20" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="I20" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="K20" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="L20" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="M20" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="O20" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="P20" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q20" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="S20" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="T20" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="U20" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="W20" s="70"/>
-      <c r="X20" s="26"/>
-      <c r="Y20" s="71"/>
-      <c r="AA20" s="70"/>
-      <c r="AB20" s="26"/>
-      <c r="AC20" s="71"/>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
+      <c r="Q27" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="S27" s="38"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="39"/>
+      <c r="W27" s="48"/>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="49"/>
+      <c r="AA27" s="48"/>
+      <c r="AB27" s="15"/>
+      <c r="AC27" s="49"/>
+    </row>
+    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A28" s="16"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="14"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="39"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="39"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="39"/>
+      <c r="S28" s="38"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="39"/>
+      <c r="W28" s="48"/>
+      <c r="X28" s="15"/>
+      <c r="Y28" s="49"/>
+      <c r="AA28" s="48"/>
+      <c r="AB28" s="15"/>
+      <c r="AC28" s="49"/>
+    </row>
+    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A29" s="16"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="14"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="39"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="39"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="39"/>
+      <c r="S29" s="38"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="39"/>
+      <c r="W29" s="48"/>
+      <c r="X29" s="15"/>
+      <c r="Y29" s="49"/>
+      <c r="AA29" s="48"/>
+      <c r="AB29" s="15"/>
+      <c r="AC29" s="49"/>
+    </row>
+    <row r="30" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="18"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="22"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="44"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="44"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="44"/>
+      <c r="S30" s="42"/>
+      <c r="T30" s="43"/>
+      <c r="U30" s="44"/>
+      <c r="W30" s="50"/>
+      <c r="X30" s="51"/>
+      <c r="Y30" s="52"/>
+      <c r="AA30" s="50"/>
+      <c r="AB30" s="51"/>
+      <c r="AC30" s="52"/>
+    </row>
+    <row r="31" spans="1:48" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G31" s="23"/>
+      <c r="I31" s="24"/>
+      <c r="K31" s="23"/>
+      <c r="M31" s="24"/>
+      <c r="O31" s="23"/>
+      <c r="Q31" s="24"/>
+      <c r="S31" s="23"/>
+      <c r="U31" s="24"/>
+      <c r="W31" s="23"/>
+      <c r="Y31" s="24"/>
+      <c r="AA31" s="23"/>
+      <c r="AC31" s="24"/>
+    </row>
+    <row r="32" spans="1:48" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="25"/>
-      <c r="G21" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="K21" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="L21" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="M21" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="O21" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="P21" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q21" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="S21" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="T21" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="U21" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="W21" s="72"/>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="73"/>
-      <c r="AA21" s="72"/>
-      <c r="AB21" s="15"/>
-      <c r="AC21" s="73"/>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
+      <c r="B32" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="25"/>
-      <c r="G22" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="K22" s="56"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="57"/>
-      <c r="O22" s="56"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="57"/>
-      <c r="S22" s="56"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="57"/>
-      <c r="W22" s="72"/>
-      <c r="X22" s="15"/>
-      <c r="Y22" s="73"/>
-      <c r="AA22" s="72"/>
-      <c r="AB22" s="15"/>
-      <c r="AC22" s="73"/>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="35"/>
-      <c r="G23" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="I23" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="K23" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="L23" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="M23" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="O23" s="56"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="57"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="15"/>
-      <c r="U23" s="57"/>
-      <c r="W23" s="72"/>
-      <c r="X23" s="15"/>
-      <c r="Y23" s="73"/>
-      <c r="AA23" s="72"/>
-      <c r="AB23" s="15"/>
-      <c r="AC23" s="73"/>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A24" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="35"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="57"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="57"/>
-      <c r="O24" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="P24" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q24" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="S24" s="56"/>
-      <c r="T24" s="15"/>
-      <c r="U24" s="57"/>
-      <c r="W24" s="72"/>
-      <c r="X24" s="15"/>
-      <c r="Y24" s="73"/>
-      <c r="AA24" s="72"/>
-      <c r="AB24" s="15"/>
-      <c r="AC24" s="73"/>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="35"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="57"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="57"/>
-      <c r="O25" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="P25" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q25" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="S25" s="56"/>
-      <c r="T25" s="15"/>
-      <c r="U25" s="57"/>
-      <c r="W25" s="72"/>
-      <c r="X25" s="15"/>
-      <c r="Y25" s="73"/>
-      <c r="AA25" s="72"/>
-      <c r="AB25" s="15"/>
-      <c r="AC25" s="73"/>
-    </row>
-    <row r="26" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="36"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="40"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="66"/>
-      <c r="K26" s="64"/>
-      <c r="L26" s="65"/>
-      <c r="M26" s="66"/>
-      <c r="O26" s="64"/>
-      <c r="P26" s="65"/>
-      <c r="Q26" s="66"/>
-      <c r="S26" s="64"/>
-      <c r="T26" s="65"/>
-      <c r="U26" s="66"/>
-      <c r="W26" s="74"/>
-      <c r="X26" s="75"/>
-      <c r="Y26" s="76"/>
-      <c r="AA26" s="74"/>
-      <c r="AB26" s="75"/>
-      <c r="AC26" s="76"/>
-    </row>
-    <row r="27" spans="1:29" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="41"/>
-      <c r="I27" s="42"/>
-      <c r="K27" s="41"/>
-      <c r="M27" s="42"/>
-      <c r="O27" s="41"/>
-      <c r="Q27" s="42"/>
-      <c r="S27" s="41"/>
-      <c r="U27" s="42"/>
-      <c r="W27" s="41"/>
-      <c r="Y27" s="42"/>
-      <c r="AA27" s="41"/>
-      <c r="AC27" s="42"/>
-    </row>
-    <row r="28" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43" t="s">
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="G28" s="53" t="s">
+      <c r="G32" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="H28" s="54" t="s">
+      <c r="H32" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="I28" s="55" t="s">
+      <c r="I32" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="K28" s="53" t="s">
+      <c r="K32" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="L28" s="54" t="s">
+      <c r="L32" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="M28" s="55" t="s">
+      <c r="M32" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="O28" s="53" t="s">
+      <c r="O32" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="P28" s="54" t="s">
+      <c r="P32" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="Q28" s="55" t="s">
+      <c r="Q32" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="S28" s="53" t="s">
+      <c r="S32" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="T28" s="54" t="s">
+      <c r="T32" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="U28" s="55" t="s">
+      <c r="U32" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="W28" s="77" t="s">
+      <c r="W32" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="X28" s="78" t="s">
+      <c r="X32" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="Y28" s="79" t="s">
+      <c r="Y32" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="AA28" s="77" t="s">
+      <c r="AA32" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="AB28" s="78" t="s">
+      <c r="AB32" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AC28" s="79" t="s">
+      <c r="AC32" s="55" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="49" t="s">
+    <row r="33" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="60"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="30"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="41"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="41"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="41"/>
+      <c r="S33" s="40"/>
+      <c r="T33" s="15"/>
+      <c r="U33" s="41"/>
+      <c r="W33" s="48"/>
+      <c r="X33" s="15"/>
+      <c r="Y33" s="49"/>
+      <c r="AA33" s="48"/>
+      <c r="AB33" s="15"/>
+      <c r="AC33" s="49"/>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A34" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="61"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="30"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="41"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="41"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="41"/>
+      <c r="S34" s="40"/>
+      <c r="T34" s="15"/>
+      <c r="U34" s="41"/>
+      <c r="W34" s="48"/>
+      <c r="X34" s="15"/>
+      <c r="Y34" s="49"/>
+      <c r="AA34" s="48"/>
+      <c r="AB34" s="15"/>
+      <c r="AC34" s="49"/>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A35" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="84" t="s">
+      <c r="B35" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="85"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="48"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="59"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="59"/>
-      <c r="O29" s="58"/>
-      <c r="P29" s="26"/>
-      <c r="Q29" s="59"/>
-      <c r="S29" s="58"/>
-      <c r="T29" s="26"/>
-      <c r="U29" s="59"/>
-      <c r="W29" s="70"/>
-      <c r="X29" s="26"/>
-      <c r="Y29" s="71"/>
-      <c r="AA29" s="70"/>
-      <c r="AB29" s="26"/>
-      <c r="AC29" s="71"/>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A30" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="84" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="85"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="48"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="59"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="59"/>
-      <c r="O30" s="58"/>
-      <c r="P30" s="26"/>
-      <c r="Q30" s="59"/>
-      <c r="S30" s="58"/>
-      <c r="T30" s="26"/>
-      <c r="U30" s="59"/>
-      <c r="W30" s="70"/>
-      <c r="X30" s="26"/>
-      <c r="Y30" s="71"/>
-      <c r="AA30" s="70"/>
-      <c r="AB30" s="26"/>
-      <c r="AC30" s="71"/>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A31" s="49"/>
-      <c r="B31" s="84"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="48"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="59"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="59"/>
-      <c r="O31" s="58"/>
-      <c r="P31" s="26"/>
-      <c r="Q31" s="59"/>
-      <c r="S31" s="58"/>
-      <c r="T31" s="26"/>
-      <c r="U31" s="59"/>
-      <c r="W31" s="70"/>
-      <c r="X31" s="26"/>
-      <c r="Y31" s="71"/>
-      <c r="AA31" s="70"/>
-      <c r="AB31" s="26"/>
-      <c r="AC31" s="71"/>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
-      <c r="B32" s="84"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="45"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="59"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="59"/>
-      <c r="O32" s="58"/>
-      <c r="P32" s="26"/>
-      <c r="Q32" s="59"/>
-      <c r="S32" s="58"/>
-      <c r="T32" s="26"/>
-      <c r="U32" s="59"/>
-      <c r="W32" s="70"/>
-      <c r="X32" s="26"/>
-      <c r="Y32" s="71"/>
-      <c r="AA32" s="70"/>
-      <c r="AB32" s="26"/>
-      <c r="AC32" s="71"/>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
-      <c r="B33" s="84"/>
-      <c r="C33" s="85"/>
-      <c r="D33" s="86"/>
-      <c r="E33" s="45"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="59"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="59"/>
-      <c r="O33" s="58"/>
-      <c r="P33" s="26"/>
-      <c r="Q33" s="59"/>
-      <c r="S33" s="58"/>
-      <c r="T33" s="26"/>
-      <c r="U33" s="59"/>
-      <c r="W33" s="70"/>
-      <c r="X33" s="26"/>
-      <c r="Y33" s="71"/>
-      <c r="AA33" s="70"/>
-      <c r="AB33" s="26"/>
-      <c r="AC33" s="71"/>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A34" s="44"/>
-      <c r="B34" s="84"/>
-      <c r="C34" s="85"/>
-      <c r="D34" s="86"/>
-      <c r="E34" s="45"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="59"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="59"/>
-      <c r="O34" s="58"/>
-      <c r="P34" s="26"/>
-      <c r="Q34" s="59"/>
-      <c r="S34" s="58"/>
-      <c r="T34" s="26"/>
-      <c r="U34" s="59"/>
-      <c r="W34" s="70"/>
-      <c r="X34" s="26"/>
-      <c r="Y34" s="71"/>
-      <c r="AA34" s="70"/>
-      <c r="AB34" s="26"/>
-      <c r="AC34" s="71"/>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A35" s="44"/>
-      <c r="B35" s="84"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="45"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="59"/>
-      <c r="K35" s="58"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="59"/>
-      <c r="O35" s="58"/>
-      <c r="P35" s="26"/>
-      <c r="Q35" s="59"/>
-      <c r="S35" s="58"/>
-      <c r="T35" s="26"/>
-      <c r="U35" s="59"/>
-      <c r="W35" s="70"/>
-      <c r="X35" s="26"/>
-      <c r="Y35" s="71"/>
-      <c r="AA35" s="70"/>
-      <c r="AB35" s="26"/>
-      <c r="AC35" s="71"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="30"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="41"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="41"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="41"/>
+      <c r="S35" s="40"/>
+      <c r="T35" s="15"/>
+      <c r="U35" s="41"/>
+      <c r="W35" s="48"/>
+      <c r="X35" s="15"/>
+      <c r="Y35" s="49"/>
+      <c r="AA35" s="48"/>
+      <c r="AB35" s="15"/>
+      <c r="AC35" s="49"/>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A36" s="44"/>
-      <c r="B36" s="84"/>
-      <c r="C36" s="85"/>
-      <c r="D36" s="86"/>
-      <c r="E36" s="45"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="59"/>
-      <c r="K36" s="58"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="59"/>
-      <c r="O36" s="58"/>
-      <c r="P36" s="26"/>
-      <c r="Q36" s="59"/>
-      <c r="S36" s="58"/>
-      <c r="T36" s="26"/>
-      <c r="U36" s="59"/>
-      <c r="W36" s="70"/>
-      <c r="X36" s="26"/>
-      <c r="Y36" s="71"/>
-      <c r="AA36" s="70"/>
-      <c r="AB36" s="26"/>
-      <c r="AC36" s="71"/>
-    </row>
-    <row r="37" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="46"/>
-      <c r="B37" s="87"/>
-      <c r="C37" s="88"/>
-      <c r="D37" s="89"/>
-      <c r="E37" s="47"/>
-      <c r="G37" s="64"/>
-      <c r="H37" s="65"/>
-      <c r="I37" s="66"/>
-      <c r="K37" s="64"/>
-      <c r="L37" s="65"/>
-      <c r="M37" s="66"/>
-      <c r="O37" s="64"/>
-      <c r="P37" s="65"/>
-      <c r="Q37" s="66"/>
-      <c r="S37" s="64"/>
-      <c r="T37" s="65"/>
-      <c r="U37" s="66"/>
-      <c r="W37" s="74"/>
-      <c r="X37" s="75"/>
-      <c r="Y37" s="76"/>
-      <c r="AA37" s="74"/>
-      <c r="AB37" s="75"/>
-      <c r="AC37" s="76"/>
-    </row>
-    <row r="38" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="A36" s="26"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="27"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="41"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="41"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="41"/>
+      <c r="S36" s="40"/>
+      <c r="T36" s="15"/>
+      <c r="U36" s="41"/>
+      <c r="W36" s="48"/>
+      <c r="X36" s="15"/>
+      <c r="Y36" s="49"/>
+      <c r="AA36" s="48"/>
+      <c r="AB36" s="15"/>
+      <c r="AC36" s="49"/>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A37" s="26"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="27"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="41"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="41"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="41"/>
+      <c r="S37" s="40"/>
+      <c r="T37" s="15"/>
+      <c r="U37" s="41"/>
+      <c r="W37" s="48"/>
+      <c r="X37" s="15"/>
+      <c r="Y37" s="49"/>
+      <c r="AA37" s="48"/>
+      <c r="AB37" s="15"/>
+      <c r="AC37" s="49"/>
+    </row>
+    <row r="38" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="28"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="29"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="44"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="44"/>
+      <c r="O38" s="42"/>
+      <c r="P38" s="43"/>
+      <c r="Q38" s="44"/>
+      <c r="S38" s="42"/>
+      <c r="T38" s="43"/>
+      <c r="U38" s="44"/>
+      <c r="W38" s="50"/>
+      <c r="X38" s="51"/>
+      <c r="Y38" s="52"/>
+      <c r="AA38" s="50"/>
+      <c r="AB38" s="51"/>
+      <c r="AC38" s="52"/>
+    </row>
+    <row r="39" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="W19:AC19 W6:AB18 W20:AB26 A6:V26" name="Contact Fields"/>
-    <protectedRange sqref="A29:AC37" name="Questionnaire"/>
+    <protectedRange sqref="W21:AC21 W6:AB20 W22:AB26 A6:V26 A27:AB30" name="Contact Fields"/>
+    <protectedRange sqref="A33:AC38" name="Questionnaire"/>
   </protectedRanges>
-  <mergeCells count="15">
+  <mergeCells count="12">
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B32:D32"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="O3:Q3"/>
@@ -3630,115 +3486,107 @@
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="S3:U3"/>
   </mergeCells>
-  <conditionalFormatting sqref="A26:R27 W7:AK27 B7:R25">
-    <cfRule type="expression" dxfId="25" priority="39">
-      <formula>$C7="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="40">
-      <formula>$D7="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA29:AC37 W29:Y37 O29:Q37 K29:M37 G29:I37 S29:U37">
-    <cfRule type="expression" dxfId="23" priority="37">
-      <formula>$C29="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="38">
-      <formula>$D29="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7:A25">
-    <cfRule type="expression" dxfId="21" priority="27">
-      <formula>$C7="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="28">
-      <formula>$D7="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W6:AC6">
-    <cfRule type="expression" dxfId="19" priority="21">
+  <conditionalFormatting sqref="A30:R31 W30:AC31 B9:J26 B6:E26 G6:I26 N9:N26 R9:R26 W6:Y26 W9:Z26 W28:Z29 R28:R29 N28:N29 B28:J29">
+    <cfRule type="expression" dxfId="23" priority="53">
       <formula>$C6="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="22">
+    <cfRule type="expression" dxfId="22" priority="54">
       <formula>$D6="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S22:V27 V7:V21">
-    <cfRule type="expression" dxfId="17" priority="19">
-      <formula>$C7="x"</formula>
+  <conditionalFormatting sqref="AA33:AC38 W33:Y38 O33:Q38 K33:M38 G33:I38 S33:U38">
+    <cfRule type="expression" dxfId="21" priority="51">
+      <formula>$C33="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="20">
-      <formula>$D7="x"</formula>
+    <cfRule type="expression" dxfId="20" priority="52">
+      <formula>$D33="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S7:U7">
-    <cfRule type="expression" dxfId="15" priority="15">
-      <formula>$C7="x"</formula>
+  <conditionalFormatting sqref="A6:A26 A28:A29">
+    <cfRule type="expression" dxfId="19" priority="41">
+      <formula>$C6="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="16">
-      <formula>$D7="x"</formula>
+    <cfRule type="expression" dxfId="18" priority="42">
+      <formula>$D6="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S8:U9">
+  <conditionalFormatting sqref="W6:Z8">
+    <cfRule type="expression" dxfId="17" priority="35">
+      <formula>$C6="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="36">
+      <formula>$D6="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S30:V31 V9:V26 V28:V29">
+    <cfRule type="expression" dxfId="15" priority="33">
+      <formula>$C9="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="34">
+      <formula>$D9="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S6:U26 O6:Q26 K6:M26 K28:M29 O28:Q29 S28:U29">
     <cfRule type="expression" dxfId="13" priority="13">
-      <formula>$C8="x"</formula>
+      <formula>$C6="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="12" priority="14">
-      <formula>$D8="x"</formula>
+      <formula>$D6="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S21:U21">
+  <conditionalFormatting sqref="AA6:AC26 AA28:AC29">
     <cfRule type="expression" dxfId="11" priority="11">
-      <formula>$C21="x"</formula>
+      <formula>$C6="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="10" priority="12">
-      <formula>$D21="x"</formula>
+      <formula>$D6="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S10:U10">
+  <conditionalFormatting sqref="W27:Z27 R27 N27 B27:J27">
     <cfRule type="expression" dxfId="9" priority="9">
-      <formula>$C10="x"</formula>
+      <formula>$C27="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="8" priority="10">
-      <formula>$D10="x"</formula>
+      <formula>$D27="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S20:U20">
+  <conditionalFormatting sqref="A27">
     <cfRule type="expression" dxfId="7" priority="7">
-      <formula>$C20="x"</formula>
+      <formula>$C27="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="6" priority="8">
-      <formula>$D20="x"</formula>
+      <formula>$D27="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S17:U19">
+  <conditionalFormatting sqref="V27">
     <cfRule type="expression" dxfId="5" priority="5">
-      <formula>$C17="x"</formula>
+      <formula>$C27="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="6">
-      <formula>$D17="x"</formula>
+      <formula>$D27="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S12:U16">
+  <conditionalFormatting sqref="K27:M27 O27:Q27 S27:U27">
     <cfRule type="expression" dxfId="3" priority="3">
-      <formula>$C12="x"</formula>
+      <formula>$C27="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="4">
-      <formula>$D12="x"</formula>
+      <formula>$D27="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S11:U11">
+  <conditionalFormatting sqref="AA27:AC27">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$C11="x"</formula>
+      <formula>$C27="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$D11="x"</formula>
+      <formula>$D27="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:D26" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:D30" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC6:AC26 Y6:Y26 U6:U26 Q6:Q26 M6:M26 I6:I26 AC29:AC37 Y29:Y37 U29:U37 Q29:Q37 M29:M37 I29:I37" xr:uid="{875B8462-1178-4F45-9F17-2CD3ACFAE181}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC33:AC38 I33:I38 M33:M38 Q33:Q38 U33:U38 Y33:Y38 I6:I30 M6:M30 Q6:Q30 U6:U30 Y6:Y30 AC6:AC30" xr:uid="{875B8462-1178-4F45-9F17-2CD3ACFAE181}">
       <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>

--- a/default-mappings-xlsx/dataQuality/DataQuality_Mapping_SuiteCRM_DE.xlsx
+++ b/default-mappings-xlsx/dataQuality/DataQuality_Mapping_SuiteCRM_DE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\dataQuality\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitHub\snapaddy-faq-attachments\default-mappings-xlsx\dataQuality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBFE475-1C39-48F4-8903-3452F1DAAB0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02083D39-553C-4A74-A37C-96B80341AB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3210" yWindow="6285" windowWidth="18255" windowHeight="5385" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1202,18 +1202,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1231,6 +1219,18 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1975,7 +1975,7 @@
   <dimension ref="A1:AV39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -2020,37 +2020,37 @@
         <v>51</v>
       </c>
       <c r="E3" s="5"/>
-      <c r="G3" s="56" t="s">
+      <c r="G3" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
       <c r="J3" s="6"/>
-      <c r="K3" s="56" t="s">
+      <c r="K3" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="O3" s="56" t="s">
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="O3" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="S3" s="56" t="s">
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="S3" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="T3" s="56"/>
-      <c r="U3" s="56"/>
-      <c r="W3" s="57" t="s">
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="W3" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="X3" s="58"/>
-      <c r="Y3" s="59"/>
-      <c r="AA3" s="57" t="s">
+      <c r="X3" s="64"/>
+      <c r="Y3" s="65"/>
+      <c r="AA3" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="AB3" s="58"/>
-      <c r="AC3" s="59"/>
+      <c r="AB3" s="64"/>
+      <c r="AC3" s="65"/>
     </row>
     <row r="4" spans="1:48" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:48" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3310,9 +3310,9 @@
       <c r="A33" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="B33" s="60"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="62"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="58"/>
       <c r="E33" s="30"/>
       <c r="G33" s="40"/>
       <c r="H33" s="15"/>
@@ -3337,11 +3337,11 @@
       <c r="A34" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="60" t="s">
+      <c r="B34" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="61"/>
-      <c r="D34" s="62"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="58"/>
       <c r="E34" s="30"/>
       <c r="G34" s="40"/>
       <c r="H34" s="15"/>
@@ -3366,11 +3366,11 @@
       <c r="A35" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="60" t="s">
+      <c r="B35" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="61"/>
-      <c r="D35" s="62"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="58"/>
       <c r="E35" s="30"/>
       <c r="G35" s="40"/>
       <c r="H35" s="15"/>
@@ -3393,9 +3393,9 @@
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="26"/>
-      <c r="B36" s="60"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="62"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="58"/>
       <c r="E36" s="27"/>
       <c r="G36" s="40"/>
       <c r="H36" s="15"/>
@@ -3418,9 +3418,9 @@
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="26"/>
-      <c r="B37" s="60"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="62"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="58"/>
       <c r="E37" s="27"/>
       <c r="G37" s="40"/>
       <c r="H37" s="15"/>
@@ -3443,9 +3443,9 @@
     </row>
     <row r="38" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="28"/>
-      <c r="B38" s="63"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="65"/>
+      <c r="B38" s="59"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="61"/>
       <c r="E38" s="29"/>
       <c r="G38" s="42"/>
       <c r="H38" s="43"/>
@@ -3473,18 +3473,18 @@
     <protectedRange sqref="A33:AC38" name="Questionnaire"/>
   </protectedRanges>
   <mergeCells count="12">
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="S3:U3"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="S3:U3"/>
   </mergeCells>
   <conditionalFormatting sqref="A30:R31 W30:AC31 B9:J26 B6:E26 G6:I26 N9:N26 R9:R26 W6:Y26 W9:Z26 W28:Z29 R28:R29 N28:N29 B28:J29">
     <cfRule type="expression" dxfId="23" priority="53">

--- a/default-mappings-xlsx/dataQuality/DataQuality_Mapping_SuiteCRM_DE.xlsx
+++ b/default-mappings-xlsx/dataQuality/DataQuality_Mapping_SuiteCRM_DE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitHub\snapaddy-faq-attachments\default-mappings-xlsx\dataQuality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02083D39-553C-4A74-A37C-96B80341AB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A60ADC8-FEDB-439A-A4F5-D9715171DF47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
@@ -1202,6 +1202,18 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1219,18 +1231,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1974,8 +1974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
   <dimension ref="A1:AV39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -2020,37 +2020,37 @@
         <v>51</v>
       </c>
       <c r="E3" s="5"/>
-      <c r="G3" s="62" t="s">
+      <c r="G3" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
       <c r="J3" s="6"/>
-      <c r="K3" s="62" t="s">
+      <c r="K3" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="O3" s="62" t="s">
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="O3" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="S3" s="62" t="s">
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="S3" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="W3" s="63" t="s">
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
+      <c r="W3" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="65"/>
-      <c r="AA3" s="63" t="s">
+      <c r="X3" s="58"/>
+      <c r="Y3" s="59"/>
+      <c r="AA3" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="AB3" s="64"/>
-      <c r="AC3" s="65"/>
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="59"/>
     </row>
     <row r="4" spans="1:48" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:48" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3310,9 +3310,9 @@
       <c r="A33" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="B33" s="56"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="58"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="62"/>
       <c r="E33" s="30"/>
       <c r="G33" s="40"/>
       <c r="H33" s="15"/>
@@ -3337,11 +3337,11 @@
       <c r="A34" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="56" t="s">
+      <c r="B34" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="57"/>
-      <c r="D34" s="58"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="62"/>
       <c r="E34" s="30"/>
       <c r="G34" s="40"/>
       <c r="H34" s="15"/>
@@ -3366,11 +3366,11 @@
       <c r="A35" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="56" t="s">
+      <c r="B35" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="57"/>
-      <c r="D35" s="58"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="62"/>
       <c r="E35" s="30"/>
       <c r="G35" s="40"/>
       <c r="H35" s="15"/>
@@ -3393,9 +3393,9 @@
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="26"/>
-      <c r="B36" s="56"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="58"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="62"/>
       <c r="E36" s="27"/>
       <c r="G36" s="40"/>
       <c r="H36" s="15"/>
@@ -3418,9 +3418,9 @@
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="26"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="58"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="62"/>
       <c r="E37" s="27"/>
       <c r="G37" s="40"/>
       <c r="H37" s="15"/>
@@ -3443,9 +3443,9 @@
     </row>
     <row r="38" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="28"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="61"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="65"/>
       <c r="E38" s="29"/>
       <c r="G38" s="42"/>
       <c r="H38" s="43"/>
@@ -3473,18 +3473,18 @@
     <protectedRange sqref="A33:AC38" name="Questionnaire"/>
   </protectedRanges>
   <mergeCells count="12">
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="O3:Q3"/>
     <mergeCell ref="W3:Y3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="S3:U3"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
   </mergeCells>
   <conditionalFormatting sqref="A30:R31 W30:AC31 B9:J26 B6:E26 G6:I26 N9:N26 R9:R26 W6:Y26 W9:Z26 W28:Z29 R28:R29 N28:N29 B28:J29">
     <cfRule type="expression" dxfId="23" priority="53">
@@ -3586,8 +3586,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:D30" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC33:AC38 I33:I38 M33:M38 Q33:Q38 U33:U38 Y33:Y38 I6:I30 M6:M30 Q6:Q30 U6:U30 Y6:Y30 AC6:AC30" xr:uid="{875B8462-1178-4F45-9F17-2CD3ACFAE181}">
-      <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I30 M6:M30 Q6:Q30 U6:U30 Y6:Y30 AC6:AC30 AC33:AC38 Y33:Y38 U33:U38 Q33:Q38 M33:M38 I33:I38" xr:uid="{D6BD5618-072C-4F27-A923-7507C2917A5B}">
+      <formula1>"text,boolean,number,picklist,multipicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
